--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4025032.83183312</v>
+        <v>4022780.752121912</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103655</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120.7740905403536</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.68074642233645</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>215.7098141956743</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4231613584432</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428751</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>47.41254713315928</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>11.03304066191151</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
-        <v>247.2395995396737</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>227.3037508385518</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417132</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522379</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>980.7518458718754</v>
+        <v>480.687070124138</v>
       </c>
       <c r="C4" t="n">
-        <v>811.8156629439685</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="D4" t="n">
-        <v>661.6990235316327</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
         <v>163.837793613838</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1383.192889845645</v>
+        <v>662.3355349543777</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.400310702115</v>
+        <v>662.3355349543777</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820605</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1887.813801820605</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1529.548103213855</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820605</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1879.403086337827</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1879.403086337827</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191806</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,19 +5176,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>120.1346509896242</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1204.10161732705</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3090381835199</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6005,13 +6005,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107583</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468472</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6677,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6707,7 +6707,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,28 +7634,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908938</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>55.21102825632968</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>59.21924749803918</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.71423459433126</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>32.15184655856211</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26418,34 @@
         <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="I4" t="n">
-        <v>10557.08828678116</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678112</v>
-      </c>
       <c r="K4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678117</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678118</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678119</v>
@@ -26525,43 +26525,43 @@
         <v>623363.7062447572</v>
       </c>
       <c r="D6" t="n">
-        <v>623363.7062447575</v>
+        <v>623363.7062447573</v>
       </c>
       <c r="E6" t="n">
-        <v>370054.5197719625</v>
+        <v>370019.7818465268</v>
       </c>
       <c r="F6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538824</v>
       </c>
       <c r="G6" t="n">
-        <v>695466.9815793178</v>
+        <v>695432.2436538817</v>
       </c>
       <c r="H6" t="n">
-        <v>695466.9815793175</v>
+        <v>695432.2436538822</v>
       </c>
       <c r="I6" t="n">
-        <v>695466.9815793175</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="J6" t="n">
-        <v>477935.7791820404</v>
+        <v>477901.0412566045</v>
       </c>
       <c r="K6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="L6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="M6" t="n">
-        <v>610411.9536438058</v>
+        <v>610377.2157183704</v>
       </c>
       <c r="N6" t="n">
-        <v>695466.9815793176</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="O6" t="n">
-        <v>695466.9815793178</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="P6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538822</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,19 +26808,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26972,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.276709502444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>261.1562795319082</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>9.999841193362812</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>87.50720871381861</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231255</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>172.1364021430099</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
-        <v>159.6364462020378</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.816119231638012e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.782999144660073e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.077696578835832e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104083</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547055</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547055</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,22 +33494,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547056</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33521,7 +33521,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>150.7833302198378</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236508</v>
@@ -33968,34 +33968,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175677</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>200.3460366764701</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707497</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748314</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748314</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748315</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.94570355317107</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
         <v>735.300110790295</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>57.74979223202568</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
